--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2848.123133251182</v>
+        <v>3454.807470529952</v>
       </c>
       <c r="AB2" t="n">
-        <v>3896.927721239173</v>
+        <v>4727.019996528014</v>
       </c>
       <c r="AC2" t="n">
-        <v>3525.010408896368</v>
+        <v>4275.879842473436</v>
       </c>
       <c r="AD2" t="n">
-        <v>2848123.133251182</v>
+        <v>3454807.470529952</v>
       </c>
       <c r="AE2" t="n">
-        <v>3896927.721239173</v>
+        <v>4727019.996528015</v>
       </c>
       <c r="AF2" t="n">
         <v>1.303931231114107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>121</v>
+        <v>120.3645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3525010.408896368</v>
+        <v>4275879.842473436</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2031.91735631982</v>
+        <v>2501.663881040201</v>
       </c>
       <c r="AB3" t="n">
-        <v>2780.158968783932</v>
+        <v>3422.886887660615</v>
       </c>
       <c r="AC3" t="n">
-        <v>2514.824498780813</v>
+        <v>3096.211367154076</v>
       </c>
       <c r="AD3" t="n">
-        <v>2031917.35631982</v>
+        <v>2501663.881040201</v>
       </c>
       <c r="AE3" t="n">
-        <v>2780158.968783932</v>
+        <v>3422886.887660615</v>
       </c>
       <c r="AF3" t="n">
         <v>1.690741059692353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>93</v>
+        <v>92.83854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2514824.498780813</v>
+        <v>3096211.367154076</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1821.45975414909</v>
+        <v>2242.264683547587</v>
       </c>
       <c r="AB4" t="n">
-        <v>2492.201592759817</v>
+        <v>3067.965461766276</v>
       </c>
       <c r="AC4" t="n">
-        <v>2254.349370573723</v>
+        <v>2775.163144011756</v>
       </c>
       <c r="AD4" t="n">
-        <v>1821459.75414909</v>
+        <v>2242264.683547587</v>
       </c>
       <c r="AE4" t="n">
-        <v>2492201.592759817</v>
+        <v>3067965.461766277</v>
       </c>
       <c r="AF4" t="n">
         <v>1.844247546664741e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>86</v>
+        <v>85.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2254349.370573723</v>
+        <v>2775163.144011756</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1710.718223774262</v>
+        <v>2121.666301064845</v>
       </c>
       <c r="AB5" t="n">
-        <v>2340.680145329462</v>
+        <v>2902.957434428075</v>
       </c>
       <c r="AC5" t="n">
-        <v>2117.288917424435</v>
+        <v>2625.903251212607</v>
       </c>
       <c r="AD5" t="n">
-        <v>1710718.223774262</v>
+        <v>2121666.301064845</v>
       </c>
       <c r="AE5" t="n">
-        <v>2340680.145329462</v>
+        <v>2902957.434428075</v>
       </c>
       <c r="AF5" t="n">
         <v>1.92844407681803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>82</v>
+        <v>81.38020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2117288.917424435</v>
+        <v>2625903.251212607</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1648.027468196777</v>
+        <v>2049.187024217013</v>
       </c>
       <c r="AB6" t="n">
-        <v>2254.903887827407</v>
+        <v>2803.788090284849</v>
       </c>
       <c r="AC6" t="n">
-        <v>2039.699025550642</v>
+        <v>2536.198490089361</v>
       </c>
       <c r="AD6" t="n">
-        <v>1648027.468196777</v>
+        <v>2049187.024217013</v>
       </c>
       <c r="AE6" t="n">
-        <v>2254903.887827407</v>
+        <v>2803788.090284849</v>
       </c>
       <c r="AF6" t="n">
         <v>1.980577218251527e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>80</v>
+        <v>79.24479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2039699.025550642</v>
+        <v>2536198.490089361</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1596.943061777947</v>
+        <v>1998.135772187107</v>
       </c>
       <c r="AB7" t="n">
-        <v>2185.00794928021</v>
+        <v>2733.937515035245</v>
       </c>
       <c r="AC7" t="n">
-        <v>1976.473857278823</v>
+        <v>2473.014355705682</v>
       </c>
       <c r="AD7" t="n">
-        <v>1596943.061777947</v>
+        <v>1998135.772187107</v>
       </c>
       <c r="AE7" t="n">
-        <v>2185007.94928021</v>
+        <v>2733937.515035245</v>
       </c>
       <c r="AF7" t="n">
         <v>2.014810309967396e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>78</v>
+        <v>77.890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1976473.857278823</v>
+        <v>2473014.355705682</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1559.8866279141</v>
+        <v>1951.324982471692</v>
       </c>
       <c r="AB8" t="n">
-        <v>2134.305701653212</v>
+        <v>2669.888927400323</v>
       </c>
       <c r="AC8" t="n">
-        <v>1930.610561004294</v>
+        <v>2415.07847538188</v>
       </c>
       <c r="AD8" t="n">
-        <v>1559886.6279141</v>
+        <v>1951324.982471691</v>
       </c>
       <c r="AE8" t="n">
-        <v>2134305.701653211</v>
+        <v>2669888.927400323</v>
       </c>
       <c r="AF8" t="n">
         <v>2.039942703005278e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>77</v>
+        <v>76.92708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1930610.561004294</v>
+        <v>2415078.47538188</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1538.279210386973</v>
+        <v>1919.895889285293</v>
       </c>
       <c r="AB9" t="n">
-        <v>2104.741479740612</v>
+        <v>2626.886255548959</v>
       </c>
       <c r="AC9" t="n">
-        <v>1903.867906937387</v>
+        <v>2376.179918177381</v>
       </c>
       <c r="AD9" t="n">
-        <v>1538279.210386973</v>
+        <v>1919895.889285293</v>
       </c>
       <c r="AE9" t="n">
-        <v>2104741.479740612</v>
+        <v>2626886.255548959</v>
       </c>
       <c r="AF9" t="n">
         <v>2.060193264301989e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>77</v>
+        <v>76.171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1903867.906937387</v>
+        <v>2376179.918177381</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1508.98380652341</v>
+        <v>1890.667805229434</v>
       </c>
       <c r="AB10" t="n">
-        <v>2064.658215752481</v>
+        <v>2586.895101491669</v>
       </c>
       <c r="AC10" t="n">
-        <v>1867.610133407069</v>
+        <v>2340.005463735382</v>
       </c>
       <c r="AD10" t="n">
-        <v>1508983.80652341</v>
+        <v>1890667.805229434</v>
       </c>
       <c r="AE10" t="n">
-        <v>2064658.215752481</v>
+        <v>2586895.101491669</v>
       </c>
       <c r="AF10" t="n">
         <v>2.077671427325936e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>76</v>
+        <v>75.546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1867610.133407069</v>
+        <v>2340005.463735382</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1489.987998493316</v>
+        <v>1861.850321540068</v>
       </c>
       <c r="AB11" t="n">
-        <v>2038.667313169802</v>
+        <v>2547.465748970225</v>
       </c>
       <c r="AC11" t="n">
-        <v>1844.09976608842</v>
+        <v>2304.33919327914</v>
       </c>
       <c r="AD11" t="n">
-        <v>1489987.998493316</v>
+        <v>1861850.321540068</v>
       </c>
       <c r="AE11" t="n">
-        <v>2038667.313169802</v>
+        <v>2547465.748970225</v>
       </c>
       <c r="AF11" t="n">
         <v>2.089785602387361e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>76</v>
+        <v>75.10416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1844099.76608842</v>
+        <v>2304339.19327914</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1458.569523740465</v>
+        <v>1840.219357027708</v>
       </c>
       <c r="AB12" t="n">
-        <v>1995.67916992767</v>
+        <v>2517.86930903361</v>
       </c>
       <c r="AC12" t="n">
-        <v>1805.214350903079</v>
+        <v>2277.567396031212</v>
       </c>
       <c r="AD12" t="n">
-        <v>1458569.523740465</v>
+        <v>1840219.357027708</v>
       </c>
       <c r="AE12" t="n">
-        <v>1995679.16992767</v>
+        <v>2517869.30903361</v>
       </c>
       <c r="AF12" t="n">
         <v>2.099308187759028e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>75</v>
+        <v>74.765625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1805214.350903079</v>
+        <v>2277567.396031212</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1448.467033348617</v>
+        <v>1820.396676203073</v>
       </c>
       <c r="AB13" t="n">
-        <v>1981.856496883123</v>
+        <v>2490.747042614387</v>
       </c>
       <c r="AC13" t="n">
-        <v>1792.71089437366</v>
+        <v>2253.033640652699</v>
       </c>
       <c r="AD13" t="n">
-        <v>1448467.033348617</v>
+        <v>1820396.676203073</v>
       </c>
       <c r="AE13" t="n">
-        <v>1981856.496883123</v>
+        <v>2490747.042614387</v>
       </c>
       <c r="AF13" t="n">
         <v>2.106540531079283e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>75</v>
+        <v>74.50520833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1792710.89437366</v>
+        <v>2253033.640652699</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1451.999154548802</v>
+        <v>1823.928797403259</v>
       </c>
       <c r="AB14" t="n">
-        <v>1986.689300935406</v>
+        <v>2495.57984666667</v>
       </c>
       <c r="AC14" t="n">
-        <v>1797.082462390076</v>
+        <v>2257.405208669116</v>
       </c>
       <c r="AD14" t="n">
-        <v>1451999.154548802</v>
+        <v>1823928.797403259</v>
       </c>
       <c r="AE14" t="n">
-        <v>1986689.300935406</v>
+        <v>2495579.84666667</v>
       </c>
       <c r="AF14" t="n">
         <v>2.104973523359894e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>75</v>
+        <v>74.55729166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1797082.462390076</v>
+        <v>2257405.208669116</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1455.202688164649</v>
+        <v>1827.132331019105</v>
       </c>
       <c r="AB15" t="n">
-        <v>1991.072516958536</v>
+        <v>2499.9630626898</v>
       </c>
       <c r="AC15" t="n">
-        <v>1801.047350427841</v>
+        <v>2261.37009670688</v>
       </c>
       <c r="AD15" t="n">
-        <v>1455202.688164649</v>
+        <v>1827132.331019105</v>
       </c>
       <c r="AE15" t="n">
-        <v>1991072.516958536</v>
+        <v>2499963.0626898</v>
       </c>
       <c r="AF15" t="n">
         <v>2.104852984304557e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>75</v>
+        <v>74.55729166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1801047.350427841</v>
+        <v>2261370.09670688</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2329.003809974821</v>
+        <v>2870.977900705753</v>
       </c>
       <c r="AB2" t="n">
-        <v>3186.645761204211</v>
+        <v>3928.1986223517</v>
       </c>
       <c r="AC2" t="n">
-        <v>2882.516762240176</v>
+        <v>3553.296859095698</v>
       </c>
       <c r="AD2" t="n">
-        <v>2329003.809974821</v>
+        <v>2870977.900705753</v>
       </c>
       <c r="AE2" t="n">
-        <v>3186645.761204211</v>
+        <v>3928198.6223517</v>
       </c>
       <c r="AF2" t="n">
         <v>1.592397067672129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>108</v>
+        <v>107.8385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2882516.762240177</v>
+        <v>3553296.859095698</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1768.899373165524</v>
+        <v>2204.354268856345</v>
       </c>
       <c r="AB3" t="n">
-        <v>2420.286160697744</v>
+        <v>3016.094759896258</v>
       </c>
       <c r="AC3" t="n">
-        <v>2189.297446413711</v>
+        <v>2728.242909127227</v>
       </c>
       <c r="AD3" t="n">
-        <v>1768899.373165524</v>
+        <v>2204354.268856345</v>
       </c>
       <c r="AE3" t="n">
-        <v>2420286.160697744</v>
+        <v>3016094.759896258</v>
       </c>
       <c r="AF3" t="n">
         <v>1.97000362788626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>88</v>
+        <v>87.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2189297.446413712</v>
+        <v>2728242.909127227</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1608.115357338107</v>
+        <v>2014.528605578601</v>
       </c>
       <c r="AB4" t="n">
-        <v>2200.294376952513</v>
+        <v>2756.366912882255</v>
       </c>
       <c r="AC4" t="n">
-        <v>1990.301369748719</v>
+        <v>2493.303123302032</v>
       </c>
       <c r="AD4" t="n">
-        <v>1608115.357338107</v>
+        <v>2014528.605578601</v>
       </c>
       <c r="AE4" t="n">
-        <v>2200294.376952513</v>
+        <v>2756366.912882255</v>
       </c>
       <c r="AF4" t="n">
         <v>2.112380952982716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>82</v>
+        <v>81.30208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1990301.369748719</v>
+        <v>2493303.123302032</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1526.940866302771</v>
+        <v>1923.740885200862</v>
       </c>
       <c r="AB5" t="n">
-        <v>2089.227857152169</v>
+        <v>2632.147148589888</v>
       </c>
       <c r="AC5" t="n">
-        <v>1889.83488271528</v>
+        <v>2380.938718970193</v>
       </c>
       <c r="AD5" t="n">
-        <v>1526940.866302771</v>
+        <v>1923740.885200862</v>
       </c>
       <c r="AE5" t="n">
-        <v>2089227.857152169</v>
+        <v>2632147.148589888</v>
       </c>
       <c r="AF5" t="n">
         <v>2.184789615769149e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>79</v>
+        <v>78.59375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1889834.88271528</v>
+        <v>2380938.718970194</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1467.267093202426</v>
+        <v>1854.386562950408</v>
       </c>
       <c r="AB6" t="n">
-        <v>2007.579568175208</v>
+        <v>2537.253505190062</v>
       </c>
       <c r="AC6" t="n">
-        <v>1815.978991844186</v>
+        <v>2295.101591712383</v>
       </c>
       <c r="AD6" t="n">
-        <v>1467267.093202426</v>
+        <v>1854386.562950408</v>
       </c>
       <c r="AE6" t="n">
-        <v>2007579.568175208</v>
+        <v>2537253.505190062</v>
       </c>
       <c r="AF6" t="n">
         <v>2.236095571732578e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>77</v>
+        <v>76.796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1815978.991844186</v>
+        <v>2295101.591712383</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1427.791813419455</v>
+        <v>1805.26489943611</v>
       </c>
       <c r="AB7" t="n">
-        <v>1953.567748849714</v>
+        <v>2470.043078074951</v>
       </c>
       <c r="AC7" t="n">
-        <v>1767.121984749053</v>
+        <v>2234.30563343071</v>
       </c>
       <c r="AD7" t="n">
-        <v>1427791.813419455</v>
+        <v>1805264.89943611</v>
       </c>
       <c r="AE7" t="n">
-        <v>1953567.748849714</v>
+        <v>2470043.078074951</v>
       </c>
       <c r="AF7" t="n">
         <v>2.268475037514126e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>76</v>
+        <v>75.703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1767121.984749053</v>
+        <v>2234305.63343071</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1405.30966058747</v>
+        <v>1773.069043065093</v>
       </c>
       <c r="AB8" t="n">
-        <v>1922.80667550241</v>
+        <v>2425.991287007188</v>
       </c>
       <c r="AC8" t="n">
-        <v>1739.296705068577</v>
+        <v>2194.458083475377</v>
       </c>
       <c r="AD8" t="n">
-        <v>1405309.66058747</v>
+        <v>1773069.043065093</v>
       </c>
       <c r="AE8" t="n">
-        <v>1922806.67550241</v>
+        <v>2425991.287007187</v>
       </c>
       <c r="AF8" t="n">
         <v>2.287533419613651e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>76</v>
+        <v>75.078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1739296.705068578</v>
+        <v>2194458.083475377</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1370.422946378606</v>
+        <v>1738.249648663933</v>
       </c>
       <c r="AB9" t="n">
-        <v>1875.073134028635</v>
+        <v>2378.349855464256</v>
       </c>
       <c r="AC9" t="n">
-        <v>1696.118785798614</v>
+        <v>2151.363483293733</v>
       </c>
       <c r="AD9" t="n">
-        <v>1370422.946378606</v>
+        <v>1738249.648663933</v>
       </c>
       <c r="AE9" t="n">
-        <v>1875073.134028635</v>
+        <v>2378349.855464255</v>
       </c>
       <c r="AF9" t="n">
         <v>2.305075044660273e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>75</v>
+        <v>74.50520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1696118.785798614</v>
+        <v>2151363.483293733</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1363.428228380063</v>
+        <v>1731.153445438905</v>
       </c>
       <c r="AB10" t="n">
-        <v>1865.502652277849</v>
+        <v>2368.640517149379</v>
       </c>
       <c r="AC10" t="n">
-        <v>1687.461697393868</v>
+        <v>2142.580790600487</v>
       </c>
       <c r="AD10" t="n">
-        <v>1363428.228380063</v>
+        <v>1731153.445438905</v>
       </c>
       <c r="AE10" t="n">
-        <v>1865502.652277849</v>
+        <v>2368640.517149379</v>
       </c>
       <c r="AF10" t="n">
         <v>2.312065316295393e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>75</v>
+        <v>74.27083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1687461.697393868</v>
+        <v>2142580.790600487</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1366.416322000207</v>
+        <v>1734.141539059049</v>
       </c>
       <c r="AB11" t="n">
-        <v>1869.591093794318</v>
+        <v>2372.728958665848</v>
       </c>
       <c r="AC11" t="n">
-        <v>1691.159943790168</v>
+        <v>2146.279036996787</v>
       </c>
       <c r="AD11" t="n">
-        <v>1366416.322000207</v>
+        <v>1734141.539059049</v>
       </c>
       <c r="AE11" t="n">
-        <v>1869591.093794318</v>
+        <v>2372728.958665848</v>
       </c>
       <c r="AF11" t="n">
         <v>2.31160369458364e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>75</v>
+        <v>74.296875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1691159.943790168</v>
+        <v>2146279.036996787</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1397.067418836106</v>
+        <v>1808.606119127731</v>
       </c>
       <c r="AB2" t="n">
-        <v>1911.529276716152</v>
+        <v>2474.614682261236</v>
       </c>
       <c r="AC2" t="n">
-        <v>1729.095605394552</v>
+        <v>2238.440930129744</v>
       </c>
       <c r="AD2" t="n">
-        <v>1397067.418836106</v>
+        <v>1808606.119127731</v>
       </c>
       <c r="AE2" t="n">
-        <v>1911529.276716152</v>
+        <v>2474614.682261236</v>
       </c>
       <c r="AF2" t="n">
         <v>2.831527094065361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1729095.605394552</v>
+        <v>2238440.930129744</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1199.831339892304</v>
+        <v>1564.559477096372</v>
       </c>
       <c r="AB3" t="n">
-        <v>1641.662172063555</v>
+        <v>2140.699300055952</v>
       </c>
       <c r="AC3" t="n">
-        <v>1484.984238449139</v>
+        <v>1936.393963348949</v>
       </c>
       <c r="AD3" t="n">
-        <v>1199831.339892304</v>
+        <v>1564559.477096372</v>
       </c>
       <c r="AE3" t="n">
-        <v>1641662.172063555</v>
+        <v>2140699.300055952</v>
       </c>
       <c r="AF3" t="n">
         <v>3.141078671249608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.30208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1484984.238449139</v>
+        <v>1936393.963348949</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1151.788640155165</v>
+        <v>1516.549931748157</v>
       </c>
       <c r="AB4" t="n">
-        <v>1575.928030788876</v>
+        <v>2075.010522078866</v>
       </c>
       <c r="AC4" t="n">
-        <v>1425.523671359268</v>
+        <v>1876.974430147218</v>
       </c>
       <c r="AD4" t="n">
-        <v>1151788.640155165</v>
+        <v>1516549.931748157</v>
       </c>
       <c r="AE4" t="n">
-        <v>1575928.030788876</v>
+        <v>2075010.522078867</v>
       </c>
       <c r="AF4" t="n">
         <v>3.200080324825314e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1425523.671359268</v>
+        <v>1876974.430147218</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1155.292484081709</v>
+        <v>1520.053775674701</v>
       </c>
       <c r="AB5" t="n">
-        <v>1580.722144627858</v>
+        <v>2079.804635917848</v>
       </c>
       <c r="AC5" t="n">
-        <v>1429.860241702038</v>
+        <v>1881.311000489988</v>
       </c>
       <c r="AD5" t="n">
-        <v>1155292.484081709</v>
+        <v>1520053.775674701</v>
       </c>
       <c r="AE5" t="n">
-        <v>1580722.144627858</v>
+        <v>2079804.635917848</v>
       </c>
       <c r="AF5" t="n">
         <v>3.1997121397796e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1429860.241702038</v>
+        <v>1881311.000489988</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1685.087311241734</v>
+        <v>2140.114015733598</v>
       </c>
       <c r="AB2" t="n">
-        <v>2305.610800046402</v>
+        <v>2928.198411493595</v>
       </c>
       <c r="AC2" t="n">
-        <v>2085.566541235055</v>
+        <v>2648.735264852928</v>
       </c>
       <c r="AD2" t="n">
-        <v>1685087.311241734</v>
+        <v>2140114.015733598</v>
       </c>
       <c r="AE2" t="n">
-        <v>2305610.800046402</v>
+        <v>2928198.411493595</v>
       </c>
       <c r="AF2" t="n">
         <v>2.261748040722637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2085566.541235054</v>
+        <v>2648735.264852928</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1391.711596452273</v>
+        <v>1789.842880173263</v>
       </c>
       <c r="AB3" t="n">
-        <v>1904.201204248384</v>
+        <v>2448.941990948053</v>
       </c>
       <c r="AC3" t="n">
-        <v>1722.466913878093</v>
+        <v>2215.218404443642</v>
       </c>
       <c r="AD3" t="n">
-        <v>1391711.596452273</v>
+        <v>1789842.880173263</v>
       </c>
       <c r="AE3" t="n">
-        <v>1904201.204248384</v>
+        <v>2448941.990948053</v>
       </c>
       <c r="AF3" t="n">
         <v>2.597893507971786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1722466.913878093</v>
+        <v>2215218.404443642</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1295.593967787959</v>
+        <v>1665.27855215337</v>
       </c>
       <c r="AB4" t="n">
-        <v>1772.688824299366</v>
+        <v>2278.507581960928</v>
       </c>
       <c r="AC4" t="n">
-        <v>1603.505890892625</v>
+        <v>2061.050016244053</v>
       </c>
       <c r="AD4" t="n">
-        <v>1295593.967787959</v>
+        <v>1665278.55215337</v>
       </c>
       <c r="AE4" t="n">
-        <v>1772688.824299366</v>
+        <v>2278507.581960928</v>
       </c>
       <c r="AF4" t="n">
         <v>2.725352982036617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1603505.890892625</v>
+        <v>2061050.016244052</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1234.919155113588</v>
+        <v>1595.222654577005</v>
       </c>
       <c r="AB5" t="n">
-        <v>1689.670868814474</v>
+        <v>2182.654012248871</v>
       </c>
       <c r="AC5" t="n">
-        <v>1528.411052562778</v>
+        <v>1974.344576693984</v>
       </c>
       <c r="AD5" t="n">
-        <v>1234919.155113588</v>
+        <v>1595222.654577005</v>
       </c>
       <c r="AE5" t="n">
-        <v>1689670.868814474</v>
+        <v>2182654.012248871</v>
       </c>
       <c r="AF5" t="n">
         <v>2.784260143596285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.55729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1528411.052562778</v>
+        <v>1974344.576693984</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1230.465119125025</v>
+        <v>1590.667133361957</v>
       </c>
       <c r="AB6" t="n">
-        <v>1683.576660276723</v>
+        <v>2176.42094714703</v>
       </c>
       <c r="AC6" t="n">
-        <v>1522.898466734595</v>
+        <v>1968.706386577302</v>
       </c>
       <c r="AD6" t="n">
-        <v>1230465.119125025</v>
+        <v>1590667.133361957</v>
       </c>
       <c r="AE6" t="n">
-        <v>1683576.660276723</v>
+        <v>2176420.94714703</v>
       </c>
       <c r="AF6" t="n">
         <v>2.792948750646358e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.32291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1522898.466734595</v>
+        <v>1968706.386577302</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1206.431602412537</v>
+        <v>1585.596922605535</v>
       </c>
       <c r="AB2" t="n">
-        <v>1650.692942426771</v>
+        <v>2169.483661108183</v>
       </c>
       <c r="AC2" t="n">
-        <v>1493.153124763654</v>
+        <v>1962.431185381459</v>
       </c>
       <c r="AD2" t="n">
-        <v>1206431.602412537</v>
+        <v>1585596.922605535</v>
       </c>
       <c r="AE2" t="n">
-        <v>1650692.94242677</v>
+        <v>2169483.661108183</v>
       </c>
       <c r="AF2" t="n">
         <v>3.42920571243414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1493153.124763654</v>
+        <v>1962431.185381459</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1112.119507038363</v>
+        <v>1472.782340849007</v>
       </c>
       <c r="AB3" t="n">
-        <v>1521.650972779829</v>
+        <v>2015.125773320814</v>
       </c>
       <c r="AC3" t="n">
-        <v>1376.426739588275</v>
+        <v>1822.804997761861</v>
       </c>
       <c r="AD3" t="n">
-        <v>1112119.507038363</v>
+        <v>1472782.340849007</v>
       </c>
       <c r="AE3" t="n">
-        <v>1521650.972779829</v>
+        <v>2015125.773320814</v>
       </c>
       <c r="AF3" t="n">
         <v>3.61138259536482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1376426.739588275</v>
+        <v>1822804.997761861</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2448.288806360074</v>
+        <v>3001.595245936857</v>
       </c>
       <c r="AB2" t="n">
-        <v>3349.856755741155</v>
+        <v>4106.915036527485</v>
       </c>
       <c r="AC2" t="n">
-        <v>3030.151128526578</v>
+        <v>3714.956829532603</v>
       </c>
       <c r="AD2" t="n">
-        <v>2448288.806360073</v>
+        <v>3001595.245936857</v>
       </c>
       <c r="AE2" t="n">
-        <v>3349856.755741155</v>
+        <v>4106915.036527486</v>
       </c>
       <c r="AF2" t="n">
         <v>1.512936026518627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>111</v>
+        <v>110.7552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3030151.128526578</v>
+        <v>3714956.829532603</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1831.460386293682</v>
+        <v>2277.968610183374</v>
       </c>
       <c r="AB3" t="n">
-        <v>2505.884898856799</v>
+        <v>3116.817149335437</v>
       </c>
       <c r="AC3" t="n">
-        <v>2266.72676114145</v>
+        <v>2819.352495083088</v>
       </c>
       <c r="AD3" t="n">
-        <v>1831460.386293682</v>
+        <v>2277968.610183374</v>
       </c>
       <c r="AE3" t="n">
-        <v>2505884.898856799</v>
+        <v>3116817.149335437</v>
       </c>
       <c r="AF3" t="n">
         <v>1.892103149795861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>89</v>
+        <v>88.56770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2266726.76114145</v>
+        <v>2819352.495083088</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1658.839324551596</v>
+        <v>2066.478679257054</v>
       </c>
       <c r="AB4" t="n">
-        <v>2269.697146677508</v>
+        <v>2827.447295564613</v>
       </c>
       <c r="AC4" t="n">
-        <v>2053.080436538558</v>
+        <v>2557.599694023129</v>
       </c>
       <c r="AD4" t="n">
-        <v>1658839.324551596</v>
+        <v>2066478.679257054</v>
       </c>
       <c r="AE4" t="n">
-        <v>2269697.146677508</v>
+        <v>2827447.295564613</v>
       </c>
       <c r="AF4" t="n">
         <v>2.040436520324378e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>83</v>
+        <v>82.13541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2053080.436538558</v>
+        <v>2557599.69402313</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1573.319443291459</v>
+        <v>1971.215703879309</v>
       </c>
       <c r="AB5" t="n">
-        <v>2152.685072266503</v>
+        <v>2697.104289946922</v>
       </c>
       <c r="AC5" t="n">
-        <v>1947.235830281862</v>
+        <v>2439.696441924033</v>
       </c>
       <c r="AD5" t="n">
-        <v>1573319.443291459</v>
+        <v>1971215.703879309</v>
       </c>
       <c r="AE5" t="n">
-        <v>2152685.072266503</v>
+        <v>2697104.289946922</v>
       </c>
       <c r="AF5" t="n">
         <v>2.115665027980706e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>79.21875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1947235.830281862</v>
+        <v>2439696.441924033</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1517.343611095128</v>
+        <v>1905.632428210637</v>
       </c>
       <c r="AB6" t="n">
-        <v>2076.096469176054</v>
+        <v>2607.370358847123</v>
       </c>
       <c r="AC6" t="n">
-        <v>1877.956735977585</v>
+        <v>2358.526591266035</v>
       </c>
       <c r="AD6" t="n">
-        <v>1517343.611095128</v>
+        <v>1905632.428210637</v>
       </c>
       <c r="AE6" t="n">
-        <v>2076096.469176054</v>
+        <v>2607370.358847123</v>
       </c>
       <c r="AF6" t="n">
         <v>2.161226861531331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>78</v>
+        <v>77.55208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1877956.735977585</v>
+        <v>2358526.591266035</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1476.730162670061</v>
+        <v>1855.242731279039</v>
       </c>
       <c r="AB7" t="n">
-        <v>2020.527357301988</v>
+        <v>2538.424952468776</v>
       </c>
       <c r="AC7" t="n">
-        <v>1827.691062149042</v>
+        <v>2296.161237706952</v>
       </c>
       <c r="AD7" t="n">
-        <v>1476730.162670061</v>
+        <v>1855242.731279039</v>
       </c>
       <c r="AE7" t="n">
-        <v>2020527.357301988</v>
+        <v>2538424.952468776</v>
       </c>
       <c r="AF7" t="n">
         <v>2.196749647011479e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>77</v>
+        <v>76.30208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1827691.062149042</v>
+        <v>2296161.237706952</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1441.110903434437</v>
+        <v>1819.589306624634</v>
       </c>
       <c r="AB8" t="n">
-        <v>1971.791515404994</v>
+        <v>2489.642363938535</v>
       </c>
       <c r="AC8" t="n">
-        <v>1783.606500601514</v>
+        <v>2252.034390959244</v>
       </c>
       <c r="AD8" t="n">
-        <v>1441110.903434437</v>
+        <v>1819589.306624634</v>
       </c>
       <c r="AE8" t="n">
-        <v>1971791.515404994</v>
+        <v>2489642.363938535</v>
       </c>
       <c r="AF8" t="n">
         <v>2.220495856870491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>76</v>
+        <v>75.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1783606.500601514</v>
+        <v>2252034.390959244</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1406.429326680001</v>
+        <v>1784.975049677902</v>
       </c>
       <c r="AB9" t="n">
-        <v>1924.338652046393</v>
+        <v>2442.281610510775</v>
       </c>
       <c r="AC9" t="n">
-        <v>1740.682471921346</v>
+        <v>2209.193681367395</v>
       </c>
       <c r="AD9" t="n">
-        <v>1406429.326680001</v>
+        <v>1784975.049677902</v>
       </c>
       <c r="AE9" t="n">
-        <v>1924338.652046393</v>
+        <v>2442281.610510775</v>
       </c>
       <c r="AF9" t="n">
         <v>2.238514661099552e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>75</v>
+        <v>74.86979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1740682.471921346</v>
+        <v>2209193.681367395</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1387.849911305591</v>
+        <v>1756.653551215742</v>
       </c>
       <c r="AB10" t="n">
-        <v>1898.917476265168</v>
+        <v>2403.530886858518</v>
       </c>
       <c r="AC10" t="n">
-        <v>1717.687457477837</v>
+        <v>2174.141272393526</v>
       </c>
       <c r="AD10" t="n">
-        <v>1387849.911305591</v>
+        <v>1756653.551215742</v>
       </c>
       <c r="AE10" t="n">
-        <v>1898917.476265169</v>
+        <v>2403530.886858518</v>
       </c>
       <c r="AF10" t="n">
         <v>2.251063471187648e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>75</v>
+        <v>74.453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1717687.457477837</v>
+        <v>2174141.272393527</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1385.773882861046</v>
+        <v>1754.577522771197</v>
       </c>
       <c r="AB11" t="n">
-        <v>1896.076962559431</v>
+        <v>2400.69037315278</v>
       </c>
       <c r="AC11" t="n">
-        <v>1715.118038413489</v>
+        <v>2171.571853329179</v>
       </c>
       <c r="AD11" t="n">
-        <v>1385773.882861046</v>
+        <v>1754577.522771197</v>
       </c>
       <c r="AE11" t="n">
-        <v>1896076.962559431</v>
+        <v>2400690.37315278</v>
       </c>
       <c r="AF11" t="n">
         <v>2.253058410227293e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>75</v>
+        <v>74.375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1715118.038413489</v>
+        <v>2171571.853329179</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1389.329196620385</v>
+        <v>1758.132836530536</v>
       </c>
       <c r="AB12" t="n">
-        <v>1900.941499694331</v>
+        <v>2405.554910287681</v>
       </c>
       <c r="AC12" t="n">
-        <v>1719.518310951656</v>
+        <v>2175.972125867345</v>
       </c>
       <c r="AD12" t="n">
-        <v>1389329.196620385</v>
+        <v>1758132.836530536</v>
       </c>
       <c r="AE12" t="n">
-        <v>1900941.499694332</v>
+        <v>2405554.910287681</v>
       </c>
       <c r="AF12" t="n">
         <v>2.252350528632581e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>75</v>
+        <v>74.40104166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1719518.310951656</v>
+        <v>2175972.125867345</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1096.664980780756</v>
+        <v>1473.2985719939</v>
       </c>
       <c r="AB2" t="n">
-        <v>1500.505408148591</v>
+        <v>2015.832103547769</v>
       </c>
       <c r="AC2" t="n">
-        <v>1357.299277967456</v>
+        <v>1823.443916823296</v>
       </c>
       <c r="AD2" t="n">
-        <v>1096664.980780755</v>
+        <v>1473298.5719939</v>
       </c>
       <c r="AE2" t="n">
-        <v>1500505.408148591</v>
+        <v>2015832.103547769</v>
       </c>
       <c r="AF2" t="n">
         <v>3.854849140761149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1357299.277967456</v>
+        <v>1823443.916823296</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1087.6834685712</v>
+        <v>1445.973199506726</v>
       </c>
       <c r="AB3" t="n">
-        <v>1488.216506907123</v>
+        <v>1978.444323400463</v>
       </c>
       <c r="AC3" t="n">
-        <v>1346.183212212893</v>
+        <v>1789.62437393917</v>
       </c>
       <c r="AD3" t="n">
-        <v>1087683.4685712</v>
+        <v>1445973.199506726</v>
       </c>
       <c r="AE3" t="n">
-        <v>1488216.506907123</v>
+        <v>1978444.323400463</v>
       </c>
       <c r="AF3" t="n">
         <v>3.900991513095722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.00520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1346183.212212893</v>
+        <v>1789624.37393917</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1994.700565463981</v>
+        <v>2483.541382363183</v>
       </c>
       <c r="AB2" t="n">
-        <v>2729.23731364604</v>
+        <v>3398.090885462503</v>
       </c>
       <c r="AC2" t="n">
-        <v>2468.76273494029</v>
+        <v>3073.781860604345</v>
       </c>
       <c r="AD2" t="n">
-        <v>1994700.565463981</v>
+        <v>2483541.382363183</v>
       </c>
       <c r="AE2" t="n">
-        <v>2729237.31364604</v>
+        <v>3398090.885462503</v>
       </c>
       <c r="AF2" t="n">
         <v>1.877938954489547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>99.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2468762.73494029</v>
+        <v>3073781.860604345</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1580.728714174689</v>
+        <v>1992.861980805143</v>
       </c>
       <c r="AB3" t="n">
-        <v>2162.8227635629</v>
+        <v>2726.721681003187</v>
       </c>
       <c r="AC3" t="n">
-        <v>1956.40599454927</v>
+        <v>2466.487190746157</v>
       </c>
       <c r="AD3" t="n">
-        <v>1580728.714174689</v>
+        <v>1992861.980805143</v>
       </c>
       <c r="AE3" t="n">
-        <v>2162822.7635629</v>
+        <v>2726721.681003187</v>
       </c>
       <c r="AF3" t="n">
         <v>2.237191853110825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>84</v>
+        <v>83.46354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1956405.99454927</v>
+        <v>2466487.190746157</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1450.775656035374</v>
+        <v>1843.799354906346</v>
       </c>
       <c r="AB4" t="n">
-        <v>1985.015256292388</v>
+        <v>2522.767620069523</v>
       </c>
       <c r="AC4" t="n">
-        <v>1795.568186218252</v>
+        <v>2281.998219136679</v>
       </c>
       <c r="AD4" t="n">
-        <v>1450775.656035374</v>
+        <v>1843799.354906346</v>
       </c>
       <c r="AE4" t="n">
-        <v>1985015.256292388</v>
+        <v>2522767.620069523</v>
       </c>
       <c r="AF4" t="n">
         <v>2.373363760193022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>78.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1795568.186218252</v>
+        <v>2281998.21913668</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1385.923050113934</v>
+        <v>1759.838192255282</v>
       </c>
       <c r="AB5" t="n">
-        <v>1896.281059775626</v>
+        <v>2407.888253225262</v>
       </c>
       <c r="AC5" t="n">
-        <v>1715.302656877823</v>
+        <v>2178.082777829831</v>
       </c>
       <c r="AD5" t="n">
-        <v>1385923.050113934</v>
+        <v>1759838.192255282</v>
       </c>
       <c r="AE5" t="n">
-        <v>1896281.059775626</v>
+        <v>2407888.253225262</v>
       </c>
       <c r="AF5" t="n">
         <v>2.43969288818198e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>76.53645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1715302.656877822</v>
+        <v>2178082.777829831</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1339.105591612231</v>
+        <v>1703.364970162281</v>
       </c>
       <c r="AB6" t="n">
-        <v>1832.223347613099</v>
+        <v>2330.619099334896</v>
       </c>
       <c r="AC6" t="n">
-        <v>1657.358522858523</v>
+        <v>2108.188083538823</v>
       </c>
       <c r="AD6" t="n">
-        <v>1339105.591612231</v>
+        <v>1703364.970162281</v>
       </c>
       <c r="AE6" t="n">
-        <v>1832223.347613099</v>
+        <v>2330619.099334897</v>
       </c>
       <c r="AF6" t="n">
         <v>2.483792794898963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>75.18229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1657358.522858523</v>
+        <v>2108188.083538823</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1300.303626835001</v>
+        <v>1664.528839966271</v>
       </c>
       <c r="AB7" t="n">
-        <v>1779.132787583022</v>
+        <v>2277.481792671571</v>
       </c>
       <c r="AC7" t="n">
-        <v>1609.334851364648</v>
+        <v>2060.122126844768</v>
       </c>
       <c r="AD7" t="n">
-        <v>1300303.626835001</v>
+        <v>1664528.839966271</v>
       </c>
       <c r="AE7" t="n">
-        <v>1779132.787583022</v>
+        <v>2277481.792671571</v>
       </c>
       <c r="AF7" t="n">
         <v>2.510611274756121e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1609334.851364648</v>
+        <v>2060122.126844768</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1299.745559160802</v>
+        <v>1663.970772292072</v>
       </c>
       <c r="AB8" t="n">
-        <v>1778.369214770974</v>
+        <v>2276.718219859524</v>
       </c>
       <c r="AC8" t="n">
-        <v>1608.644152870101</v>
+        <v>2059.431428350221</v>
       </c>
       <c r="AD8" t="n">
-        <v>1299745.559160802</v>
+        <v>1663970.772292072</v>
       </c>
       <c r="AE8" t="n">
-        <v>1778369.214770974</v>
+        <v>2276718.219859524</v>
       </c>
       <c r="AF8" t="n">
         <v>2.513264439875679e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>75</v>
+        <v>74.296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1608644.152870101</v>
+        <v>2059431.428350221</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1302.75685688458</v>
+        <v>1666.98207001585</v>
       </c>
       <c r="AB9" t="n">
-        <v>1782.489405165727</v>
+        <v>2280.838410254277</v>
       </c>
       <c r="AC9" t="n">
-        <v>1612.371118076302</v>
+        <v>2063.158393556422</v>
       </c>
       <c r="AD9" t="n">
-        <v>1302756.85688458</v>
+        <v>1666982.07001585</v>
       </c>
       <c r="AE9" t="n">
-        <v>1782489.405165727</v>
+        <v>2280838.410254277</v>
       </c>
       <c r="AF9" t="n">
         <v>2.513336147041072e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>75</v>
+        <v>74.296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1612371.118076302</v>
+        <v>2063158.393556422</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2210.456367806401</v>
+        <v>2731.512754955276</v>
       </c>
       <c r="AB2" t="n">
-        <v>3024.443920885332</v>
+        <v>3737.376257167896</v>
       </c>
       <c r="AC2" t="n">
-        <v>2735.795237909625</v>
+        <v>3380.686312624172</v>
       </c>
       <c r="AD2" t="n">
-        <v>2210456.367806401</v>
+        <v>2731512.754955276</v>
       </c>
       <c r="AE2" t="n">
-        <v>3024443.920885332</v>
+        <v>3737376.257167896</v>
       </c>
       <c r="AF2" t="n">
         <v>1.679812689972258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>105</v>
+        <v>104.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2735795.237909624</v>
+        <v>3380686.312624172</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1698.972922790385</v>
+        <v>2133.13533061961</v>
       </c>
       <c r="AB3" t="n">
-        <v>2324.609706357213</v>
+        <v>2918.649866642777</v>
       </c>
       <c r="AC3" t="n">
-        <v>2102.752218592694</v>
+        <v>2640.098019721205</v>
       </c>
       <c r="AD3" t="n">
-        <v>1698972.922790385</v>
+        <v>2133135.33061961</v>
       </c>
       <c r="AE3" t="n">
-        <v>2324609.706357213</v>
+        <v>2918649.866642777</v>
       </c>
       <c r="AF3" t="n">
         <v>2.052081599426985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>86</v>
+        <v>85.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2102752.218592694</v>
+        <v>2640098.019721205</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1555.715951400444</v>
+        <v>1951.275008525805</v>
       </c>
       <c r="AB4" t="n">
-        <v>2128.599198049964</v>
+        <v>2669.820550842866</v>
       </c>
       <c r="AC4" t="n">
-        <v>1925.448678095813</v>
+        <v>2415.0166245871</v>
       </c>
       <c r="AD4" t="n">
-        <v>1555715.951400444</v>
+        <v>1951275.008525805</v>
       </c>
       <c r="AE4" t="n">
-        <v>2128599.198049964</v>
+        <v>2669820.550842866</v>
       </c>
       <c r="AF4" t="n">
         <v>2.191783968356904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>81</v>
+        <v>80.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1925448.678095813</v>
+        <v>2415016.6245871</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1475.934310371421</v>
+        <v>1861.909596871057</v>
       </c>
       <c r="AB5" t="n">
-        <v>2019.438437076463</v>
+        <v>2547.546852093127</v>
       </c>
       <c r="AC5" t="n">
-        <v>1826.706066941532</v>
+        <v>2304.412556033822</v>
       </c>
       <c r="AD5" t="n">
-        <v>1475934.310371421</v>
+        <v>1861909.596871057</v>
       </c>
       <c r="AE5" t="n">
-        <v>2019438.437076463</v>
+        <v>2547546.852093127</v>
       </c>
       <c r="AF5" t="n">
         <v>2.264342563072444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>78</v>
+        <v>77.83854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1826706.066941532</v>
+        <v>2304412.556033822</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1428.260247421047</v>
+        <v>1804.517123679549</v>
       </c>
       <c r="AB6" t="n">
-        <v>1954.208680916543</v>
+        <v>2469.019938295286</v>
       </c>
       <c r="AC6" t="n">
-        <v>1767.701747158977</v>
+        <v>2233.380140675632</v>
       </c>
       <c r="AD6" t="n">
-        <v>1428260.247421047</v>
+        <v>1804517.123679549</v>
       </c>
       <c r="AE6" t="n">
-        <v>1954208.680916543</v>
+        <v>2469019.938295286</v>
       </c>
       <c r="AF6" t="n">
         <v>2.312399095020236e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>77</v>
+        <v>76.22395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1767701.747158977</v>
+        <v>2233380.140675631</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1386.18180609387</v>
+        <v>1752.821757337722</v>
       </c>
       <c r="AB7" t="n">
-        <v>1896.635101122883</v>
+        <v>2398.288057427796</v>
       </c>
       <c r="AC7" t="n">
-        <v>1715.622909015798</v>
+        <v>2169.398811245316</v>
       </c>
       <c r="AD7" t="n">
-        <v>1386181.80609387</v>
+        <v>1752821.757337722</v>
       </c>
       <c r="AE7" t="n">
-        <v>1896635.101122883</v>
+        <v>2398288.057427796</v>
       </c>
       <c r="AF7" t="n">
         <v>2.345835611614897e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>76</v>
+        <v>75.13020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1715622.909015798</v>
+        <v>2169398.811245316</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1351.443245730404</v>
+        <v>1718.049031555476</v>
       </c>
       <c r="AB8" t="n">
-        <v>1849.104270276468</v>
+        <v>2350.710479948133</v>
       </c>
       <c r="AC8" t="n">
-        <v>1672.628353955424</v>
+        <v>2126.361970984763</v>
       </c>
       <c r="AD8" t="n">
-        <v>1351443.245730404</v>
+        <v>1718049.031555476</v>
       </c>
       <c r="AE8" t="n">
-        <v>1849104.270276468</v>
+        <v>2350710.479948133</v>
       </c>
       <c r="AF8" t="n">
         <v>2.366547300031833e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>75</v>
+        <v>74.47916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1672628.353955424</v>
+        <v>2126361.970984763</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1342.041656148372</v>
+        <v>1708.647441973444</v>
       </c>
       <c r="AB9" t="n">
-        <v>1836.240600641473</v>
+        <v>2337.846810313138</v>
       </c>
       <c r="AC9" t="n">
-        <v>1660.992374896119</v>
+        <v>2114.725991925457</v>
       </c>
       <c r="AD9" t="n">
-        <v>1342041.656148372</v>
+        <v>1708647.441973444</v>
       </c>
       <c r="AE9" t="n">
-        <v>1836240.600641473</v>
+        <v>2337846.810313138</v>
       </c>
       <c r="AF9" t="n">
         <v>2.37162369425167e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>75</v>
+        <v>74.32291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1660992.374896119</v>
+        <v>2114725.991925457</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1342.983141940045</v>
+        <v>1709.588927765117</v>
       </c>
       <c r="AB10" t="n">
-        <v>1837.528783037062</v>
+        <v>2339.134992708727</v>
       </c>
       <c r="AC10" t="n">
-        <v>1662.157614971848</v>
+        <v>2115.891232001186</v>
       </c>
       <c r="AD10" t="n">
-        <v>1342983.141940045</v>
+        <v>1709588.927765117</v>
       </c>
       <c r="AE10" t="n">
-        <v>1837528.783037062</v>
+        <v>2339134.992708727</v>
       </c>
       <c r="AF10" t="n">
         <v>2.376023235908862e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>75</v>
+        <v>74.19270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1662157.614971848</v>
+        <v>2115891.232001186</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2714.100140500134</v>
+        <v>3299.700423042359</v>
       </c>
       <c r="AB2" t="n">
-        <v>3713.551549880035</v>
+        <v>4514.795691315487</v>
       </c>
       <c r="AC2" t="n">
-        <v>3359.13540196168</v>
+        <v>4083.909927091717</v>
       </c>
       <c r="AD2" t="n">
-        <v>2714100.140500134</v>
+        <v>3299700.423042359</v>
       </c>
       <c r="AE2" t="n">
-        <v>3713551.549880035</v>
+        <v>4514795.691315487</v>
       </c>
       <c r="AF2" t="n">
         <v>1.368600627511073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>118</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3359135.40196168</v>
+        <v>4083909.927091717</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1967.167968102324</v>
+        <v>2425.851395946526</v>
       </c>
       <c r="AB3" t="n">
-        <v>2691.565999283351</v>
+        <v>3319.156900944652</v>
       </c>
       <c r="AC3" t="n">
-        <v>2434.686717948353</v>
+        <v>3002.381224784338</v>
       </c>
       <c r="AD3" t="n">
-        <v>1967167.968102324</v>
+        <v>2425851.395946526</v>
       </c>
       <c r="AE3" t="n">
-        <v>2691565.999283351</v>
+        <v>3319156.900944652</v>
       </c>
       <c r="AF3" t="n">
         <v>1.75395987446975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>92</v>
+        <v>91.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2434686.717948353</v>
+        <v>3002381.224784337</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1768.143402223043</v>
+        <v>2187.809655578938</v>
       </c>
       <c r="AB4" t="n">
-        <v>2419.251807903158</v>
+        <v>2993.457690113113</v>
       </c>
       <c r="AC4" t="n">
-        <v>2188.361810798118</v>
+        <v>2707.766289512972</v>
       </c>
       <c r="AD4" t="n">
-        <v>1768143.402223043</v>
+        <v>2187809.655578938</v>
       </c>
       <c r="AE4" t="n">
-        <v>2419251.807903158</v>
+        <v>2993457.690113113</v>
       </c>
       <c r="AF4" t="n">
         <v>1.904153379471527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>85</v>
+        <v>84.14062500000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>2188361.810798118</v>
+        <v>2707766.289512972</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1663.385022219665</v>
+        <v>2073.321594987712</v>
       </c>
       <c r="AB5" t="n">
-        <v>2275.916770768987</v>
+        <v>2836.810074755435</v>
       </c>
       <c r="AC5" t="n">
-        <v>2058.706468436044</v>
+        <v>2566.068902708722</v>
       </c>
       <c r="AD5" t="n">
-        <v>1663385.022219664</v>
+        <v>2073321.594987712</v>
       </c>
       <c r="AE5" t="n">
-        <v>2275916.770768987</v>
+        <v>2836810.074755435</v>
       </c>
       <c r="AF5" t="n">
         <v>1.985003140050116e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>81</v>
+        <v>80.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2058706.468436044</v>
+        <v>2566068.902708722</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1599.467609766398</v>
+        <v>1999.641347557674</v>
       </c>
       <c r="AB6" t="n">
-        <v>2188.462147213204</v>
+        <v>2735.997509678553</v>
       </c>
       <c r="AC6" t="n">
-        <v>1979.59839140909</v>
+        <v>2474.877747351454</v>
       </c>
       <c r="AD6" t="n">
-        <v>1599467.609766398</v>
+        <v>1999641.347557674</v>
       </c>
       <c r="AE6" t="n">
-        <v>2188462.147213204</v>
+        <v>2735997.509678553</v>
       </c>
       <c r="AF6" t="n">
         <v>2.038103096959798e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>79</v>
+        <v>78.61979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1979598.39140909</v>
+        <v>2474877.747351454</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1562.691105285752</v>
+        <v>1953.034688292553</v>
       </c>
       <c r="AB7" t="n">
-        <v>2138.142911317915</v>
+        <v>2672.228222331323</v>
       </c>
       <c r="AC7" t="n">
-        <v>1934.081552764156</v>
+        <v>2417.194511287887</v>
       </c>
       <c r="AD7" t="n">
-        <v>1562691.105285752</v>
+        <v>1953034.688292553</v>
       </c>
       <c r="AE7" t="n">
-        <v>2138142.911317915</v>
+        <v>2672228.222331323</v>
       </c>
       <c r="AF7" t="n">
         <v>2.068929375536565e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>78</v>
+        <v>77.44791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1934081.552764156</v>
+        <v>2417194.511287887</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1522.771980132865</v>
+        <v>1903.386893581676</v>
       </c>
       <c r="AB8" t="n">
-        <v>2083.523803176226</v>
+        <v>2604.297919301782</v>
       </c>
       <c r="AC8" t="n">
-        <v>1884.67521564511</v>
+        <v>2355.747381038706</v>
       </c>
       <c r="AD8" t="n">
-        <v>1522771.980132865</v>
+        <v>1903386.893581676</v>
       </c>
       <c r="AE8" t="n">
-        <v>2083523.803176226</v>
+        <v>2604297.919301782</v>
       </c>
       <c r="AF8" t="n">
         <v>2.09895577063729e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>77</v>
+        <v>76.328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1884675.21564511</v>
+        <v>2355747.381038706</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1494.796149460409</v>
+        <v>1875.478382716924</v>
       </c>
       <c r="AB9" t="n">
-        <v>2045.246037443628</v>
+        <v>2566.112263500025</v>
       </c>
       <c r="AC9" t="n">
-        <v>1850.05062615085</v>
+        <v>2321.206110632764</v>
       </c>
       <c r="AD9" t="n">
-        <v>1494796.149460409</v>
+        <v>1875478.382716923</v>
       </c>
       <c r="AE9" t="n">
-        <v>2045246.037443628</v>
+        <v>2566112.263500025</v>
       </c>
       <c r="AF9" t="n">
         <v>2.113907438689494e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>76</v>
+        <v>75.80729166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1850050.62615085</v>
+        <v>2321206.110632764</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1472.702764682022</v>
+        <v>1843.589008572842</v>
       </c>
       <c r="AB10" t="n">
-        <v>2015.016893698494</v>
+        <v>2522.479814936197</v>
       </c>
       <c r="AC10" t="n">
-        <v>1822.706509457881</v>
+        <v>2281.737881721342</v>
       </c>
       <c r="AD10" t="n">
-        <v>1472702.764682022</v>
+        <v>1843589.008572842</v>
       </c>
       <c r="AE10" t="n">
-        <v>2015016.893698493</v>
+        <v>2522479.814936197</v>
       </c>
       <c r="AF10" t="n">
         <v>2.131258757169831e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>76</v>
+        <v>75.18229166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1822706.509457881</v>
+        <v>2281737.881721342</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1443.07212579384</v>
+        <v>1823.720193631574</v>
       </c>
       <c r="AB11" t="n">
-        <v>1974.474946360152</v>
+        <v>2495.294425783302</v>
       </c>
       <c r="AC11" t="n">
-        <v>1786.033828672531</v>
+        <v>2257.147027954265</v>
       </c>
       <c r="AD11" t="n">
-        <v>1443072.12579384</v>
+        <v>1823720.193631574</v>
       </c>
       <c r="AE11" t="n">
-        <v>1974474.946360152</v>
+        <v>2495294.425783302</v>
       </c>
       <c r="AF11" t="n">
         <v>2.143318538808646e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>75</v>
+        <v>74.765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1786033.828672531</v>
+        <v>2257147.027954265</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1427.907481860587</v>
+        <v>1798.759560332627</v>
       </c>
       <c r="AB12" t="n">
-        <v>1953.726011513803</v>
+        <v>2461.142186118259</v>
       </c>
       <c r="AC12" t="n">
-        <v>1767.265143046604</v>
+        <v>2226.254230109885</v>
       </c>
       <c r="AD12" t="n">
-        <v>1427907.481860587</v>
+        <v>1798759.560332627</v>
       </c>
       <c r="AE12" t="n">
-        <v>1953726.011513803</v>
+        <v>2461142.18611826</v>
       </c>
       <c r="AF12" t="n">
         <v>2.152055727546972e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>75</v>
+        <v>74.453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1767265.143046604</v>
+        <v>2226254.230109885</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1427.464165978158</v>
+        <v>1798.316244450197</v>
       </c>
       <c r="AB13" t="n">
-        <v>1953.119447165747</v>
+        <v>2460.535621770202</v>
       </c>
       <c r="AC13" t="n">
-        <v>1766.716468348608</v>
+        <v>2225.705555411888</v>
       </c>
       <c r="AD13" t="n">
-        <v>1427464.165978158</v>
+        <v>1798316.244450197</v>
       </c>
       <c r="AE13" t="n">
-        <v>1953119.447165746</v>
+        <v>2460535.621770202</v>
       </c>
       <c r="AF13" t="n">
         <v>2.15119431457277e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>75</v>
+        <v>74.47916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1766716.468348608</v>
+        <v>2225705.555411888</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1430.473544807152</v>
+        <v>1801.427108505676</v>
       </c>
       <c r="AB14" t="n">
-        <v>1957.237012044</v>
+        <v>2464.792043212545</v>
       </c>
       <c r="AC14" t="n">
-        <v>1770.441058613919</v>
+        <v>2229.555749965699</v>
       </c>
       <c r="AD14" t="n">
-        <v>1430473.544807152</v>
+        <v>1801427.108505676</v>
       </c>
       <c r="AE14" t="n">
-        <v>1957237.012044</v>
+        <v>2464792.043212545</v>
       </c>
       <c r="AF14" t="n">
         <v>2.150886667081984e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>75</v>
+        <v>74.50520833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1770441.058613919</v>
+        <v>2229555.749965699</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1786.902878982739</v>
+        <v>2243.714843819366</v>
       </c>
       <c r="AB2" t="n">
-        <v>2444.919351615478</v>
+        <v>3069.949635026681</v>
       </c>
       <c r="AC2" t="n">
-        <v>2211.579680163158</v>
+        <v>2776.957950560993</v>
       </c>
       <c r="AD2" t="n">
-        <v>1786902.878982739</v>
+        <v>2243714.843819366</v>
       </c>
       <c r="AE2" t="n">
-        <v>2444919.351615478</v>
+        <v>3069949.635026681</v>
       </c>
       <c r="AF2" t="n">
         <v>2.122827978226601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>95</v>
+        <v>94.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2211579.680163158</v>
+        <v>2776957.950560993</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1462.356647209019</v>
+        <v>1852.564583539982</v>
       </c>
       <c r="AB3" t="n">
-        <v>2000.860879333441</v>
+        <v>2534.760592580659</v>
       </c>
       <c r="AC3" t="n">
-        <v>1809.901525235738</v>
+        <v>2292.846599183595</v>
       </c>
       <c r="AD3" t="n">
-        <v>1462356.647209019</v>
+        <v>1852564.583539982</v>
       </c>
       <c r="AE3" t="n">
-        <v>2000860.879333441</v>
+        <v>2534760.592580659</v>
       </c>
       <c r="AF3" t="n">
         <v>2.463170805304882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82</v>
+        <v>81.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1809901.525235738</v>
+        <v>2292846.599183595</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1351.286419414158</v>
+        <v>1722.45487176671</v>
       </c>
       <c r="AB4" t="n">
-        <v>1848.889693591892</v>
+        <v>2356.738744897095</v>
       </c>
       <c r="AC4" t="n">
-        <v>1672.434256168464</v>
+        <v>2131.814906787719</v>
       </c>
       <c r="AD4" t="n">
-        <v>1351286.419414158</v>
+        <v>1722454.87176671</v>
       </c>
       <c r="AE4" t="n">
-        <v>1848889.693591892</v>
+        <v>2356738.744897095</v>
       </c>
       <c r="AF4" t="n">
         <v>2.593953883999601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.00520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1672434.256168464</v>
+        <v>2131814.906787719</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1286.179503170505</v>
+        <v>1647.82821353385</v>
       </c>
       <c r="AB5" t="n">
-        <v>1759.807538472899</v>
+        <v>2254.631258807095</v>
       </c>
       <c r="AC5" t="n">
-        <v>1591.853976906438</v>
+        <v>2039.452415861391</v>
       </c>
       <c r="AD5" t="n">
-        <v>1286179.503170505</v>
+        <v>1647828.21353385</v>
       </c>
       <c r="AE5" t="n">
-        <v>1759807.538472899</v>
+        <v>2254631.258807095</v>
       </c>
       <c r="AF5" t="n">
         <v>2.66183835593205e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1591853.976906438</v>
+        <v>2039452.415861391</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1254.112069200464</v>
+        <v>1615.726614145028</v>
       </c>
       <c r="AB6" t="n">
-        <v>1715.931460599747</v>
+        <v>2210.708434300695</v>
       </c>
       <c r="AC6" t="n">
-        <v>1552.165370325038</v>
+        <v>1999.721524079811</v>
       </c>
       <c r="AD6" t="n">
-        <v>1254112.069200464</v>
+        <v>1615726.614145028</v>
       </c>
       <c r="AE6" t="n">
-        <v>1715931.460599747</v>
+        <v>2210708.434300696</v>
       </c>
       <c r="AF6" t="n">
         <v>2.68676768178295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.34895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1552165.370325038</v>
+        <v>1999721.524079811</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1252.79725777156</v>
+        <v>1614.411802716125</v>
       </c>
       <c r="AB7" t="n">
-        <v>1714.132477597336</v>
+        <v>2208.909451298283</v>
       </c>
       <c r="AC7" t="n">
-        <v>1550.538079735488</v>
+        <v>1998.094233490261</v>
       </c>
       <c r="AD7" t="n">
-        <v>1252797.25777156</v>
+        <v>1614411.802716125</v>
       </c>
       <c r="AE7" t="n">
-        <v>1714132.477597336</v>
+        <v>2208909.451298283</v>
       </c>
       <c r="AF7" t="n">
         <v>2.690833079537096e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.24479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1550538.079735488</v>
+        <v>1998094.233490261</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1499.547986042271</v>
+        <v>1913.087569036246</v>
       </c>
       <c r="AB2" t="n">
-        <v>2051.747709891167</v>
+        <v>2617.570811422322</v>
       </c>
       <c r="AC2" t="n">
-        <v>1855.93178810515</v>
+        <v>2367.753526963882</v>
       </c>
       <c r="AD2" t="n">
-        <v>1499547.986042271</v>
+        <v>1913087.569036246</v>
       </c>
       <c r="AE2" t="n">
-        <v>2051747.709891167</v>
+        <v>2617570.811422321</v>
       </c>
       <c r="AF2" t="n">
         <v>2.610220770298807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1855931.78810515</v>
+        <v>2367753.526963882</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1266.872241121295</v>
+        <v>1642.841245029606</v>
       </c>
       <c r="AB3" t="n">
-        <v>1733.390490760883</v>
+        <v>2247.807868490065</v>
       </c>
       <c r="AC3" t="n">
-        <v>1567.958135151498</v>
+        <v>2033.28024033953</v>
       </c>
       <c r="AD3" t="n">
-        <v>1266872.241121295</v>
+        <v>1642841.245029606</v>
       </c>
       <c r="AE3" t="n">
-        <v>1733390.490760883</v>
+        <v>2247807.868490065</v>
       </c>
       <c r="AF3" t="n">
         <v>2.92804896848001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1567958.135151498</v>
+        <v>2033280.24033953</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1183.907122404167</v>
+        <v>1550.44102752505</v>
       </c>
       <c r="AB4" t="n">
-        <v>1619.873955169392</v>
+        <v>2121.381814490433</v>
       </c>
       <c r="AC4" t="n">
-        <v>1465.2754583954</v>
+        <v>1918.920111493542</v>
       </c>
       <c r="AD4" t="n">
-        <v>1183907.122404166</v>
+        <v>1550441.02752505</v>
       </c>
       <c r="AE4" t="n">
-        <v>1619873.955169392</v>
+        <v>2121381.814490433</v>
       </c>
       <c r="AF4" t="n">
         <v>3.033584676438093e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.86979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1465275.4583954</v>
+        <v>1918920.111493542</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1180.587513861858</v>
+        <v>1547.121418982741</v>
       </c>
       <c r="AB5" t="n">
-        <v>1615.331920311013</v>
+        <v>2116.839779632054</v>
       </c>
       <c r="AC5" t="n">
-        <v>1461.166908969118</v>
+        <v>1914.81156206726</v>
       </c>
       <c r="AD5" t="n">
-        <v>1180587.513861858</v>
+        <v>1547121.418982741</v>
       </c>
       <c r="AE5" t="n">
-        <v>1615331.920311013</v>
+        <v>2116839.779632054</v>
       </c>
       <c r="AF5" t="n">
         <v>3.042393855366826e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.66145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1461166.908969118</v>
+        <v>1914811.562067261</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1303.85956157923</v>
+        <v>1694.574542475361</v>
       </c>
       <c r="AB2" t="n">
-        <v>1783.998174376845</v>
+        <v>2318.591648367352</v>
       </c>
       <c r="AC2" t="n">
-        <v>1613.735892471482</v>
+        <v>2097.308515610988</v>
       </c>
       <c r="AD2" t="n">
-        <v>1303859.56157923</v>
+        <v>1694574.542475361</v>
       </c>
       <c r="AE2" t="n">
-        <v>1783998.174376845</v>
+        <v>2318591.648367352</v>
       </c>
       <c r="AF2" t="n">
         <v>3.096339562811066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.36979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1613735.892471482</v>
+        <v>2097308.515610988</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1136.126385358686</v>
+        <v>1498.990783809564</v>
       </c>
       <c r="AB3" t="n">
-        <v>1554.498242806418</v>
+        <v>2050.985321214349</v>
       </c>
       <c r="AC3" t="n">
-        <v>1406.139112264959</v>
+        <v>1855.242160733629</v>
       </c>
       <c r="AD3" t="n">
-        <v>1136126.385358686</v>
+        <v>1498990.783809564</v>
       </c>
       <c r="AE3" t="n">
-        <v>1554498.242806418</v>
+        <v>2050985.321214349</v>
       </c>
       <c r="AF3" t="n">
         <v>3.374717248980724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1406139.112264959</v>
+        <v>1855242.160733629</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1135.287297280356</v>
+        <v>1498.050210504749</v>
       </c>
       <c r="AB4" t="n">
-        <v>1553.350165479694</v>
+        <v>2049.698387323535</v>
       </c>
       <c r="AC4" t="n">
-        <v>1405.100605826961</v>
+        <v>1854.078050007131</v>
       </c>
       <c r="AD4" t="n">
-        <v>1135287.297280356</v>
+        <v>1498050.210504749</v>
       </c>
       <c r="AE4" t="n">
-        <v>1553350.165479694</v>
+        <v>2049698.387323536</v>
       </c>
       <c r="AF4" t="n">
         <v>3.384022625541638e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.36458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1405100.605826961</v>
+        <v>1854078.050007131</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1053.348682908426</v>
+        <v>1427.072520191831</v>
       </c>
       <c r="AB2" t="n">
-        <v>1441.238138419478</v>
+        <v>1952.583580122701</v>
       </c>
       <c r="AC2" t="n">
-        <v>1303.688393279154</v>
+        <v>1766.231743704056</v>
       </c>
       <c r="AD2" t="n">
-        <v>1053348.682908426</v>
+        <v>1427072.520191831</v>
       </c>
       <c r="AE2" t="n">
-        <v>1441238.138419478</v>
+        <v>1952583.580122701</v>
       </c>
       <c r="AF2" t="n">
         <v>4.274101792856632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.93229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1303688.393279154</v>
+        <v>1766231.743704057</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2106.250486001511</v>
+        <v>2606.377465351542</v>
       </c>
       <c r="AB2" t="n">
-        <v>2881.864836160659</v>
+        <v>3566.160633352702</v>
       </c>
       <c r="AC2" t="n">
-        <v>2606.823700920187</v>
+        <v>3225.81126764327</v>
       </c>
       <c r="AD2" t="n">
-        <v>2106250.486001511</v>
+        <v>2606377.465351542</v>
       </c>
       <c r="AE2" t="n">
-        <v>2881864.836160659</v>
+        <v>3566160.633352702</v>
       </c>
       <c r="AF2" t="n">
         <v>1.774124907581962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>103</v>
+        <v>102.1614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2606823.700920186</v>
+        <v>3225811.26764327</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1640.076104535364</v>
+        <v>2063.272756736578</v>
       </c>
       <c r="AB3" t="n">
-        <v>2244.024481276454</v>
+        <v>2823.060810936779</v>
       </c>
       <c r="AC3" t="n">
-        <v>2029.857934291569</v>
+        <v>2553.631849331705</v>
       </c>
       <c r="AD3" t="n">
-        <v>1640076.104535364</v>
+        <v>2063272.756736578</v>
       </c>
       <c r="AE3" t="n">
-        <v>2244024.481276454</v>
+        <v>2823060.810936779</v>
       </c>
       <c r="AF3" t="n">
         <v>2.140266094573516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>84.68750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>2029857.934291569</v>
+        <v>2553631.849331705</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1503.943244541352</v>
+        <v>1898.312756584696</v>
       </c>
       <c r="AB4" t="n">
-        <v>2057.761496474729</v>
+        <v>2597.355261207388</v>
       </c>
       <c r="AC4" t="n">
-        <v>1861.37162733758</v>
+        <v>2349.467320488759</v>
       </c>
       <c r="AD4" t="n">
-        <v>1503943.244541352</v>
+        <v>1898312.756584696</v>
       </c>
       <c r="AE4" t="n">
-        <v>2057761.496474729</v>
+        <v>2597355.261207388</v>
       </c>
       <c r="AF4" t="n">
         <v>2.277508143755676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>79.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1861371.62733758</v>
+        <v>2349467.320488759</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1435.270762050473</v>
+        <v>1810.366249320459</v>
       </c>
       <c r="AB5" t="n">
-        <v>1963.800776314601</v>
+        <v>2477.02297004239</v>
       </c>
       <c r="AC5" t="n">
-        <v>1776.378386434835</v>
+        <v>2240.619374305117</v>
       </c>
       <c r="AD5" t="n">
-        <v>1435270.762050473</v>
+        <v>1810366.249320459</v>
       </c>
       <c r="AE5" t="n">
-        <v>1963800.776314601</v>
+        <v>2477022.97004239</v>
       </c>
       <c r="AF5" t="n">
         <v>2.350026508485803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>78</v>
+        <v>77.13541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1776378.386434835</v>
+        <v>2240619.374305117</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1379.725331132045</v>
+        <v>1754.853972790953</v>
       </c>
       <c r="AB6" t="n">
-        <v>1887.801067240541</v>
+        <v>2401.068624265924</v>
       </c>
       <c r="AC6" t="n">
-        <v>1707.631982928542</v>
+        <v>2171.914004686964</v>
       </c>
       <c r="AD6" t="n">
-        <v>1379725.331132045</v>
+        <v>1754853.972790953</v>
       </c>
       <c r="AE6" t="n">
-        <v>1887801.067240541</v>
+        <v>2401068.624265924</v>
       </c>
       <c r="AF6" t="n">
         <v>2.39394118040971e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>75.703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1707631.982928542</v>
+        <v>2171914.004686964</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1341.617913274665</v>
+        <v>1716.712389514793</v>
       </c>
       <c r="AB7" t="n">
-        <v>1835.660816947451</v>
+        <v>2348.881627339586</v>
       </c>
       <c r="AC7" t="n">
-        <v>1660.467924944123</v>
+        <v>2124.707661502365</v>
       </c>
       <c r="AD7" t="n">
-        <v>1341617.913274665</v>
+        <v>1716712.389514793</v>
       </c>
       <c r="AE7" t="n">
-        <v>1835660.816947451</v>
+        <v>2348881.627339586</v>
       </c>
       <c r="AF7" t="n">
         <v>2.421292156742666e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1660467.924944123</v>
+        <v>2124707.661502365</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1320.601519213436</v>
+        <v>1686.042405872423</v>
       </c>
       <c r="AB8" t="n">
-        <v>1806.905259415008</v>
+        <v>2306.917602655912</v>
       </c>
       <c r="AC8" t="n">
-        <v>1634.456757463899</v>
+        <v>2086.748624437622</v>
       </c>
       <c r="AD8" t="n">
-        <v>1320601.519213436</v>
+        <v>1686042.405872423</v>
       </c>
       <c r="AE8" t="n">
-        <v>1806905.259415008</v>
+        <v>2306917.602655912</v>
       </c>
       <c r="AF8" t="n">
         <v>2.43778625697399e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>75</v>
+        <v>74.34895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1634456.757463899</v>
+        <v>2086748.624437622</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1320.479685446298</v>
+        <v>1685.920572105285</v>
       </c>
       <c r="AB9" t="n">
-        <v>1806.738561079884</v>
+        <v>2306.750904320787</v>
       </c>
       <c r="AC9" t="n">
-        <v>1634.305968583915</v>
+        <v>2086.597835557639</v>
       </c>
       <c r="AD9" t="n">
-        <v>1320479.685446298</v>
+        <v>1685920.572105285</v>
       </c>
       <c r="AE9" t="n">
-        <v>1806738.561079883</v>
+        <v>2306750.904320787</v>
       </c>
       <c r="AF9" t="n">
         <v>2.442449146068922e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>75</v>
+        <v>74.19270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1634305.968583915</v>
+        <v>2086597.835557639</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2573.857967119856</v>
+        <v>3148.164704229369</v>
       </c>
       <c r="AB2" t="n">
-        <v>3521.666021213098</v>
+        <v>4307.457835551452</v>
       </c>
       <c r="AC2" t="n">
-        <v>3185.563158837692</v>
+        <v>3896.3601052813</v>
       </c>
       <c r="AD2" t="n">
-        <v>2573857.967119856</v>
+        <v>3148164.704229369</v>
       </c>
       <c r="AE2" t="n">
-        <v>3521666.021213098</v>
+        <v>4307457.835551452</v>
       </c>
       <c r="AF2" t="n">
         <v>1.438268767658861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>114</v>
+        <v>113.8541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3185563.158837692</v>
+        <v>3896360.1052813</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1894.005951939871</v>
+        <v>2351.476743533867</v>
       </c>
       <c r="AB3" t="n">
-        <v>2591.462501089528</v>
+        <v>3217.394220335556</v>
       </c>
       <c r="AC3" t="n">
-        <v>2344.136957126007</v>
+        <v>2910.330631587758</v>
       </c>
       <c r="AD3" t="n">
-        <v>1894005.951939871</v>
+        <v>2351476.743533867</v>
       </c>
       <c r="AE3" t="n">
-        <v>2591462.501089528</v>
+        <v>3217394.220335556</v>
       </c>
       <c r="AF3" t="n">
         <v>1.820553575432819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>90</v>
+        <v>89.94791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2344136.957126007</v>
+        <v>2910330.631587758</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1716.124819306244</v>
+        <v>2134.617141339475</v>
       </c>
       <c r="AB4" t="n">
-        <v>2348.077687858482</v>
+        <v>2920.677345442571</v>
       </c>
       <c r="AC4" t="n">
-        <v>2123.980448877001</v>
+        <v>2641.931998789931</v>
       </c>
       <c r="AD4" t="n">
-        <v>1716124.819306244</v>
+        <v>2134617.141339474</v>
       </c>
       <c r="AE4" t="n">
-        <v>2348077.687858481</v>
+        <v>2920677.345442571</v>
       </c>
       <c r="AF4" t="n">
         <v>1.966260747601312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>84</v>
+        <v>83.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2123980.448877001</v>
+        <v>2641931.998789931</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1624.710951587477</v>
+        <v>2023.764781453568</v>
       </c>
       <c r="AB5" t="n">
-        <v>2223.001201150447</v>
+        <v>2769.004256185707</v>
       </c>
       <c r="AC5" t="n">
-        <v>2010.841086514429</v>
+        <v>2504.734376297224</v>
       </c>
       <c r="AD5" t="n">
-        <v>1624710.951587477</v>
+        <v>2023764.781453568</v>
       </c>
       <c r="AE5" t="n">
-        <v>2223001.201150447</v>
+        <v>2769004.256185707</v>
       </c>
       <c r="AF5" t="n">
         <v>2.046503454414862e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>81</v>
+        <v>80.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2010841.086514429</v>
+        <v>2504734.376297224</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1566.386049262345</v>
+        <v>1955.703550335475</v>
       </c>
       <c r="AB6" t="n">
-        <v>2143.198496676112</v>
+        <v>2675.879877120333</v>
       </c>
       <c r="AC6" t="n">
-        <v>1938.654640151326</v>
+        <v>2420.497657268963</v>
       </c>
       <c r="AD6" t="n">
-        <v>1566386.049262345</v>
+        <v>1955703.550335475</v>
       </c>
       <c r="AE6" t="n">
-        <v>2143198.496676113</v>
+        <v>2675879.877120333</v>
       </c>
       <c r="AF6" t="n">
         <v>2.094862891358138e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>79</v>
+        <v>78.17708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1938654.640151326</v>
+        <v>2420497.657268963</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1513.745132757268</v>
+        <v>1903.095788219322</v>
       </c>
       <c r="AB7" t="n">
-        <v>2071.172872360533</v>
+        <v>2603.899616102348</v>
       </c>
       <c r="AC7" t="n">
-        <v>1873.503040331827</v>
+        <v>2355.387091337604</v>
       </c>
       <c r="AD7" t="n">
-        <v>1513745.132757268</v>
+        <v>1903095.788219322</v>
       </c>
       <c r="AE7" t="n">
-        <v>2071172.872360533</v>
+        <v>2603899.616102348</v>
       </c>
       <c r="AF7" t="n">
         <v>2.131462621268393e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>77</v>
+        <v>76.82291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1873503.040331827</v>
+        <v>2355387.091337604</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1478.964509268461</v>
+        <v>1868.280999311735</v>
       </c>
       <c r="AB8" t="n">
-        <v>2023.584488890333</v>
+        <v>2556.2644859989</v>
       </c>
       <c r="AC8" t="n">
-        <v>1830.456425389307</v>
+        <v>2312.298191194904</v>
       </c>
       <c r="AD8" t="n">
-        <v>1478964.509268461</v>
+        <v>1868280.999311735</v>
       </c>
       <c r="AE8" t="n">
-        <v>2023584.488890333</v>
+        <v>2556264.4859989</v>
       </c>
       <c r="AF8" t="n">
         <v>2.156554188681095e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>76</v>
+        <v>75.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1830456.425389307</v>
+        <v>2312298.191194904</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1454.340743440031</v>
+        <v>1824.219752346022</v>
       </c>
       <c r="AB9" t="n">
-        <v>1989.893166159995</v>
+        <v>2495.977944055386</v>
       </c>
       <c r="AC9" t="n">
-        <v>1799.980555214284</v>
+        <v>2257.765312201785</v>
       </c>
       <c r="AD9" t="n">
-        <v>1454340.743440031</v>
+        <v>1824219.752346022</v>
       </c>
       <c r="AE9" t="n">
-        <v>1989893.166159995</v>
+        <v>2495977.944055386</v>
       </c>
       <c r="AF9" t="n">
         <v>2.176551979250615e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>76</v>
+        <v>75.234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1799980.555214284</v>
+        <v>2257765.312201785</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1423.355718709681</v>
+        <v>1802.970045378775</v>
       </c>
       <c r="AB10" t="n">
-        <v>1947.498088361115</v>
+        <v>2466.90315751189</v>
       </c>
       <c r="AC10" t="n">
-        <v>1761.631604138664</v>
+        <v>2231.465382479281</v>
       </c>
       <c r="AD10" t="n">
-        <v>1423355.71870968</v>
+        <v>1802970.045378775</v>
       </c>
       <c r="AE10" t="n">
-        <v>1947498.088361115</v>
+        <v>2466903.15751189</v>
       </c>
       <c r="AF10" t="n">
         <v>2.188626116952968e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>75</v>
+        <v>74.81770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1761631.604138664</v>
+        <v>2231465.382479281</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1406.153259324275</v>
+        <v>1775.998102811486</v>
       </c>
       <c r="AB11" t="n">
-        <v>1923.960924511056</v>
+        <v>2429.998955773198</v>
       </c>
       <c r="AC11" t="n">
-        <v>1740.340794171837</v>
+        <v>2198.083265959158</v>
       </c>
       <c r="AD11" t="n">
-        <v>1406153.259324274</v>
+        <v>1775998.102811486</v>
       </c>
       <c r="AE11" t="n">
-        <v>1923960.924511056</v>
+        <v>2429998.955773199</v>
       </c>
       <c r="AF11" t="n">
         <v>2.200197165584389e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>75</v>
+        <v>74.42708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1740340.794171837</v>
+        <v>2198083.265959159</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1406.571093328112</v>
+        <v>1776.415936815323</v>
       </c>
       <c r="AB12" t="n">
-        <v>1924.532623428642</v>
+        <v>2430.570654690785</v>
       </c>
       <c r="AC12" t="n">
-        <v>1740.857930947114</v>
+        <v>2198.600402734435</v>
       </c>
       <c r="AD12" t="n">
-        <v>1406571.093328112</v>
+        <v>1776415.936815323</v>
       </c>
       <c r="AE12" t="n">
-        <v>1924532.623428642</v>
+        <v>2430570.654690785</v>
       </c>
       <c r="AF12" t="n">
         <v>2.200511596253721e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>75</v>
+        <v>74.42708333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1740857.930947114</v>
+        <v>2198600.402734435</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1408.921796878973</v>
+        <v>1778.766640366184</v>
       </c>
       <c r="AB13" t="n">
-        <v>1927.748959732651</v>
+        <v>2433.786990994794</v>
       </c>
       <c r="AC13" t="n">
-        <v>1743.767304628424</v>
+        <v>2201.509776415745</v>
       </c>
       <c r="AD13" t="n">
-        <v>1408921.796878973</v>
+        <v>1778766.640366184</v>
       </c>
       <c r="AE13" t="n">
-        <v>1927748.959732651</v>
+        <v>2433786.990994794</v>
       </c>
       <c r="AF13" t="n">
         <v>2.200826026923053e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>75</v>
+        <v>74.40104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1743767.304628424</v>
+        <v>2201509.776415745</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1050.845635393159</v>
+        <v>1438.951601711809</v>
       </c>
       <c r="AB2" t="n">
-        <v>1437.813358382426</v>
+        <v>1968.837063526426</v>
       </c>
       <c r="AC2" t="n">
-        <v>1300.59046944213</v>
+        <v>1780.934017463637</v>
       </c>
       <c r="AD2" t="n">
-        <v>1050845.635393159</v>
+        <v>1438951.601711809</v>
       </c>
       <c r="AE2" t="n">
-        <v>1437813.358382426</v>
+        <v>1968837.063526426</v>
       </c>
       <c r="AF2" t="n">
         <v>4.760147305721751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.46354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1300590.46944213</v>
+        <v>1780934.017463637</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1591.139045267292</v>
+        <v>2025.352190786914</v>
       </c>
       <c r="AB2" t="n">
-        <v>2177.066637835194</v>
+        <v>2771.176219667149</v>
       </c>
       <c r="AC2" t="n">
-        <v>1969.29045345242</v>
+        <v>2506.699050632367</v>
       </c>
       <c r="AD2" t="n">
-        <v>1591139.045267292</v>
+        <v>2025352.190786914</v>
       </c>
       <c r="AE2" t="n">
-        <v>2177066.637835194</v>
+        <v>2771176.219667149</v>
       </c>
       <c r="AF2" t="n">
         <v>2.425398916375898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1969290.453452419</v>
+        <v>2506699.050632367</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1329.025045177447</v>
+        <v>1716.0899712022</v>
       </c>
       <c r="AB3" t="n">
-        <v>1818.430699258705</v>
+        <v>2348.030007145138</v>
       </c>
       <c r="AC3" t="n">
-        <v>1644.882225504969</v>
+        <v>2123.937318744018</v>
       </c>
       <c r="AD3" t="n">
-        <v>1329025.045177447</v>
+        <v>1716089.9712022</v>
       </c>
       <c r="AE3" t="n">
-        <v>1818430.699258705</v>
+        <v>2348030.007145138</v>
       </c>
       <c r="AF3" t="n">
         <v>2.754430092027729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>79</v>
+        <v>78.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1644882.225504969</v>
+        <v>2123937.318744018</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1236.10437060682</v>
+        <v>1604.21576110284</v>
       </c>
       <c r="AB4" t="n">
-        <v>1691.292532940331</v>
+        <v>2194.958777345378</v>
       </c>
       <c r="AC4" t="n">
-        <v>1529.877947340484</v>
+        <v>1985.474992279526</v>
       </c>
       <c r="AD4" t="n">
-        <v>1236104.37060682</v>
+        <v>1604215.76110284</v>
       </c>
       <c r="AE4" t="n">
-        <v>1691292.532940331</v>
+        <v>2194958.777345377</v>
       </c>
       <c r="AF4" t="n">
         <v>2.875113670357053e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.33854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1529877.947340484</v>
+        <v>1985474.992279526</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1204.082011147562</v>
+        <v>1562.784459201848</v>
       </c>
       <c r="AB5" t="n">
-        <v>1647.47812800138</v>
+        <v>2138.270642264401</v>
       </c>
       <c r="AC5" t="n">
-        <v>1490.245127715003</v>
+        <v>1934.197093248381</v>
       </c>
       <c r="AD5" t="n">
-        <v>1204082.011147562</v>
+        <v>1562784.459201848</v>
       </c>
       <c r="AE5" t="n">
-        <v>1647478.12800138</v>
+        <v>2138270.642264402</v>
       </c>
       <c r="AF5" t="n">
         <v>2.907717366225485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.47916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1490245.127715003</v>
+        <v>1934197.093248381</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1207.361551535222</v>
+        <v>1566.165484815994</v>
       </c>
       <c r="AB6" t="n">
-        <v>1651.965339842888</v>
+        <v>2142.896710669998</v>
       </c>
       <c r="AC6" t="n">
-        <v>1494.304086356198</v>
+        <v>1938.381656178076</v>
       </c>
       <c r="AD6" t="n">
-        <v>1207361.551535222</v>
+        <v>1566165.484815994</v>
       </c>
       <c r="AE6" t="n">
-        <v>1651965.339842888</v>
+        <v>2142896.710669998</v>
       </c>
       <c r="AF6" t="n">
         <v>2.906552948515899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.53125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1494304.086356198</v>
+        <v>1938381.656178076</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1884.719168230177</v>
+        <v>2362.364069429947</v>
       </c>
       <c r="AB2" t="n">
-        <v>2578.755913913943</v>
+        <v>3232.290739941493</v>
       </c>
       <c r="AC2" t="n">
-        <v>2332.643068796652</v>
+        <v>2923.8054482699</v>
       </c>
       <c r="AD2" t="n">
-        <v>1884719.168230177</v>
+        <v>2362364.069429947</v>
       </c>
       <c r="AE2" t="n">
-        <v>2578755.913913943</v>
+        <v>3232290.739941493</v>
       </c>
       <c r="AF2" t="n">
         <v>1.994069030753069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2332643.068796652</v>
+        <v>2923805.4482699</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1520.446825467263</v>
+        <v>1921.618988685129</v>
       </c>
       <c r="AB3" t="n">
-        <v>2080.342423984165</v>
+        <v>2629.243876165595</v>
       </c>
       <c r="AC3" t="n">
-        <v>1881.797462818046</v>
+        <v>2378.312530791307</v>
       </c>
       <c r="AD3" t="n">
-        <v>1520446.825467263</v>
+        <v>1921618.988685129</v>
       </c>
       <c r="AE3" t="n">
-        <v>2080342.423984165</v>
+        <v>2629243.876165595</v>
       </c>
       <c r="AF3" t="n">
         <v>2.346965555601291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1881797.462818046</v>
+        <v>2378312.530791307</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1397.262078694745</v>
+        <v>1779.391665822071</v>
       </c>
       <c r="AB4" t="n">
-        <v>1911.795618922528</v>
+        <v>2434.642178397715</v>
       </c>
       <c r="AC4" t="n">
-        <v>1729.336528274564</v>
+        <v>2202.283345933195</v>
       </c>
       <c r="AD4" t="n">
-        <v>1397262.078694745</v>
+        <v>1779391.665822071</v>
       </c>
       <c r="AE4" t="n">
-        <v>1911795.618922528</v>
+        <v>2434642.178397715</v>
       </c>
       <c r="AF4" t="n">
         <v>2.477015145870646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.86458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1729336.528274564</v>
+        <v>2202283.345933195</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1332.955851652604</v>
+        <v>1705.530490830808</v>
       </c>
       <c r="AB5" t="n">
-        <v>1823.809002092959</v>
+        <v>2333.582060249604</v>
       </c>
       <c r="AC5" t="n">
-        <v>1649.747230665217</v>
+        <v>2110.868263622373</v>
       </c>
       <c r="AD5" t="n">
-        <v>1332955.851652604</v>
+        <v>1705530.490830808</v>
       </c>
       <c r="AE5" t="n">
-        <v>1823809.002092958</v>
+        <v>2333582.060249604</v>
       </c>
       <c r="AF5" t="n">
         <v>2.542780542316653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1649747.230665217</v>
+        <v>2110868.263622373</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1286.805428677489</v>
+        <v>1659.345902436912</v>
       </c>
       <c r="AB6" t="n">
-        <v>1760.663957365439</v>
+        <v>2270.390268888836</v>
       </c>
       <c r="AC6" t="n">
-        <v>1592.628660381865</v>
+        <v>2053.70740813884</v>
       </c>
       <c r="AD6" t="n">
-        <v>1286805.428677489</v>
+        <v>1659345.902436912</v>
       </c>
       <c r="AE6" t="n">
-        <v>1760663.957365439</v>
+        <v>2270390.268888836</v>
       </c>
       <c r="AF6" t="n">
         <v>2.585365117718065e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1592628.660381865</v>
+        <v>2053707.40813884</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1276.234208014297</v>
+        <v>1639.186579435675</v>
       </c>
       <c r="AB7" t="n">
-        <v>1746.199946884719</v>
+        <v>2242.807393791981</v>
       </c>
       <c r="AC7" t="n">
-        <v>1579.545074761059</v>
+        <v>2028.757003928421</v>
       </c>
       <c r="AD7" t="n">
-        <v>1276234.208014297</v>
+        <v>1639186.579435674</v>
       </c>
       <c r="AE7" t="n">
-        <v>1746199.946884719</v>
+        <v>2242807.393791981</v>
       </c>
       <c r="AF7" t="n">
         <v>2.597066618437061e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.27083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1579545.074761059</v>
+        <v>2028757.003928421</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1279.909027223851</v>
+        <v>1642.861398645228</v>
       </c>
       <c r="AB8" t="n">
-        <v>1751.227996648812</v>
+        <v>2247.835443556074</v>
       </c>
       <c r="AC8" t="n">
-        <v>1584.093254512579</v>
+        <v>2033.305183679941</v>
       </c>
       <c r="AD8" t="n">
-        <v>1279909.027223851</v>
+        <v>1642861.398645228</v>
       </c>
       <c r="AE8" t="n">
-        <v>1751227.996648812</v>
+        <v>2247835.443556074</v>
       </c>
       <c r="AF8" t="n">
         <v>2.596622257650264e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>75</v>
+        <v>74.27083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1584093.254512579</v>
+        <v>2033305.183679941</v>
       </c>
     </row>
   </sheetData>
